--- a/tests/UCtests-maisam.xlsx
+++ b/tests/UCtests-maisam.xlsx
@@ -11,12 +11,15 @@
     <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
     <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -163,9 +166,6 @@
     <t>patientnotinDB</t>
   </si>
   <si>
-    <t>patientNotInDB</t>
-  </si>
-  <si>
     <t>system Opens patient medical record .</t>
   </si>
   <si>
@@ -227,9 +227,6 @@
     <t>CancelsopenMR</t>
   </si>
   <si>
-    <t xml:space="preserve">system clean patient id and return to main window </t>
-  </si>
-  <si>
     <r>
       <t>open "patient window"
 type patient ID :</t>
@@ -328,24 +325,9 @@
     <t>the patient has diagnosis history</t>
   </si>
   <si>
-    <t xml:space="preserve">press "viewing medical record"
-Type a specialization :
- Type a  doctor name: </t>
-  </si>
-  <si>
     <t xml:space="preserve">patienthasnotdiagnosis history </t>
   </si>
   <si>
-    <t xml:space="preserve">
-press "viewing medical record"
-Type a specialization :
- Type a  doctor name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-System throws out the warning message"user hasn't diagnosis history"</t>
-  </si>
-  <si>
     <t>selectdiagnosishistory1</t>
   </si>
   <si>
@@ -364,99 +346,12 @@
     <t>selectdiagnosishistory3</t>
   </si>
   <si>
-    <t>System shows "select diagnosis history by doctor name and specialization ".system loads diagnosis and treatment history for the patient that are related to the name "walid" and "orthopedics"</t>
-  </si>
-  <si>
     <t>patient   has diagnosis history that related to doctor  "walid"and specialization "orthopedics"</t>
   </si>
   <si>
     <t>selectdiagnosishistory4</t>
   </si>
   <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gynecologist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Type a  doctor name: 
-press "search"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">press "viewing medical record"
-Type a specialization :
- Type a  doctor name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>walid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-press "search"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>orthopedics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Type a  doctor name: 
-press "search"</t>
-    </r>
-  </si>
-  <si>
     <t>system loads all diagnosis and treatment history for the patient</t>
   </si>
   <si>
@@ -464,34 +359,6 @@
   </si>
   <si>
     <t>selectdiagnosishistory5</t>
-  </si>
-  <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :
- Type a  doctor name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">155 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-press "search"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -534,54 +401,6 @@
     <t>selectdiagnosishistory7</t>
   </si>
   <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hgh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Type a  doctor name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-press "search"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">System throws out the warning message"specialziation   incorrect ".
 System cleans filed and loads diagnosis and treatment history for the patient </t>
   </si>
@@ -611,83 +430,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :
- Type a  doctor name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-press "search"</t>
-    </r>
-  </si>
-  <si>
     <t>selectdiagnosishistory8</t>
-  </si>
-  <si>
-    <r>
-      <t>press "viewing medical record"
-Type a specialization :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>orthopedics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Type a  doctor name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>walid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">doctor doesn't press search </t>
@@ -832,9 +575,6 @@
     <t>Incorrecturgency</t>
   </si>
   <si>
-    <t xml:space="preserve">urgency number can not be negative </t>
-  </si>
-  <si>
     <r>
       <t>System throws out the warning message"</t>
     </r>
@@ -886,22 +626,6 @@
 Type a code testing : 13,15
 Type a urgency: 1
 press "save "</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">system throws out the warning message "patient not exist in DB"cleanng patient ID fields </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -924,9 +648,6 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>* Notes : doctor name and date field filling automatically by the system</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
     </r>
@@ -954,9 +675,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>does the referral exist in DB ?</t>
   </si>
   <si>
     <t xml:space="preserve">yes </t>
@@ -988,35 +706,6 @@
     <t xml:space="preserve">moche </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-System throws out the warning message"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">referral not exist in DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".cleaning all fields and return to main window</t>
-    </r>
-  </si>
-  <si>
-    <t>referral not exist in DB .</t>
-  </si>
-  <si>
     <t xml:space="preserve">open " viewing referral "window 
 Type a patient ID:31254689
 Type a doctor name  : moche
@@ -1025,9 +714,6 @@
 </t>
   </si>
   <si>
-    <t>ReferralNOTinDB</t>
-  </si>
-  <si>
     <t>open " viewing referral "window 
 Type a patient ID:
 Type a doctor name  : toni
@@ -1372,17 +1058,9 @@
 press "cancel "</t>
   </si>
   <si>
-    <t>system throws out warning message "the viewing  referral canceled ".cleaning all fields and return to main window</t>
-  </si>
-  <si>
     <t>doctor has logged in and was identified</t>
   </si>
   <si>
-    <t>open "new visit documentation " window 
-Type a visit discription(code testing):1221,131
-press "cancel"</t>
-  </si>
-  <si>
     <r>
       <t>sytem throws out the warning message "</t>
     </r>
@@ -1433,19 +1111,9 @@
     </r>
   </si>
   <si>
-    <t>open "new visit documentation " window 
-Type a visit discription(code testing):13 ,12 
-press "submit"</t>
-  </si>
-  <si>
     <t>missingVisitDisc</t>
   </si>
   <si>
-    <t>open "new visit documentation " window 
-Type a visit discription(code testing):
-press "submit"</t>
-  </si>
-  <si>
     <r>
       <t>system throws out a warning message "</t>
     </r>
@@ -1472,9 +1140,6 @@
   </si>
   <si>
     <t>visit discription Field is empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient has a medical record </t>
   </si>
   <si>
     <r>
@@ -1537,32 +1202,6 @@
   </si>
   <si>
     <r>
-      <t>system doesn't open the medical report .
-System throws out the warning message"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user doesn’t exist in DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".cleaning field and back to main window</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>System throws out the warning message"</t>
     </r>
     <r>
@@ -1573,17 +1212,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>user doesn’t has medical record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".cleaning field and back to main window</t>
+      <t xml:space="preserve">patient ID illegal.please insert valid ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"cleaning patient ID field .</t>
     </r>
   </si>
   <si>
@@ -1598,31 +1237,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">patient ID illegal.please insert valid ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"cleaning patient ID field .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>System throws out the warning message"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">patient ID incorrect.please enter patient ID </t>
     </r>
     <r>
@@ -1694,51 +1308,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>".system loads diagnosis and treatment history for the patient that are related to the name "walid"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Notes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acceptance test include the use case "searching"</t>
     </r>
   </si>
   <si>
@@ -1867,6 +1436,520 @@
         <scheme val="minor"/>
       </rPr>
       <t>".cleaning patient id field</t>
+    </r>
+  </si>
+  <si>
+    <t>open "new visit documentation " window 
+Type a visit discription:patient is better but needed one visit more .
+press "submit"</t>
+  </si>
+  <si>
+    <t>open "new visit documentation " window 
+Type a visit discription:
+press "submit"</t>
+  </si>
+  <si>
+    <t>open "new visit documentation " window 
+Type a visit discription:patient is better but needed one visit more
+press "cancel"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Notes :1.patient medical record has opened                                                                                                                   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. the doctor name ,doctor Id , patient ID and date  fields is fills automatically by the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.doctor has logged in and was identified
+2.Patient has a medical record 
+3.patient exist in DB
+</t>
+  </si>
+  <si>
+    <t>* Notes: the acceptance test include the extension use case "searching"</t>
+  </si>
+  <si>
+    <t>IncorrectID3</t>
+  </si>
+  <si>
+    <t>Does the patient has diagnosis history?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open "viewing medical record" for patient 312312221
+Type a specialization :
+ Type a  doctor name: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open "viewing medical record"for patient 205495621
+Type a specialization :
+ Type a  doctor name: </t>
+  </si>
+  <si>
+    <r>
+      <t>System throws out the warning message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user hasn't diagnosis history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".system back to main medical record window </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>system doesn't open the medical report .
+System throws out the warning message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">patient not exist .please insert patient ID again </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".cleaning patient ID  field .back to patient window </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System throws out the warning message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user doesn’t has medical record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".cleaning field and back to patient window</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">system clean patient id and back to main window </t>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orthopedics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Type a  doctor name: 
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open "viewing medical record" for patient 312312221
+Type a specialization :
+ Type a  doctor name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>walid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gynecologist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Type a  doctor name: 
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :
+ Type a  doctor name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">155 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hgh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Type a  doctor name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :
+ Type a  doctor name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+press "search"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open "viewing medical record" for patient 312312221
+Type a specialization :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orthopedics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Type a  doctor name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>walid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">select diagnosis history by doctor name and specialization </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".system loads diagnosis and treatment history for the patient that are related to the name "walid" and "orthopedics"</t>
+    </r>
+  </si>
+  <si>
+    <t>* Notes : doctor name and date field filling automatically by the system
+                 urgency={0,1};0-not urgency,1- urgency</t>
+  </si>
+  <si>
+    <t>urgency number can not be negative .</t>
+  </si>
+  <si>
+    <r>
+      <t>system throws out the warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>patient not exist in DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"cleanng patient ID fields </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>referral not exist in DB .or patient hasn't a referral from doctor moche in date 25-12-2010</t>
+  </si>
+  <si>
+    <t>is there referral in system  ?</t>
+  </si>
+  <si>
+    <t>ReferralNOTExist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+System throws out the warning message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">referral not exist  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".cleaning all fields and return to main window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>system throws out warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the viewing  referral canceled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".cleaning all fields and return to main window</t>
     </r>
   </si>
 </sst>
@@ -1997,7 +2080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2219,111 +2302,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2620,1004 +2826,1042 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet______1"/>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>205916148</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>312321546</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>205916145</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="32" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>312312221</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>205495621</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="C54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C55" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B70" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>205916148</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>205495161</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>312321546</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>205495162</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C78" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D78" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="18" t="s">
+    <row r="79" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="B80" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="30"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>31254689</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="25">
+        <v>40537</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>205495161</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="21">
+        <v>40476</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    </row>
+    <row r="112" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>205495161</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="12"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>205495162</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="B112" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
-        <v>31254689</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="30">
-        <v>40537</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
-        <v>205495161</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="26">
-        <v>40476</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-    </row>
-    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A44:B44"/>
+  <mergeCells count="16">
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tests/UCtests-maisam.xlsx
+++ b/tests/UCtests-maisam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="181">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -183,9 +183,6 @@
     <t>open "patient window"
 type patient ID :312321546
 press "Enter"</t>
-  </si>
-  <si>
-    <t>IncorrectID</t>
   </si>
   <si>
     <r>
@@ -642,9 +639,6 @@
 press "cancel "</t>
   </si>
   <si>
-    <t>system throws out warning message "the lab referral canceled ".cleaning all fields and return to main window</t>
-  </si>
-  <si>
     <t>cancel</t>
   </si>
   <si>
@@ -851,42 +845,6 @@
 press "go to "</t>
   </si>
   <si>
-    <r>
-      <t>system throws out the warning message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doctor name Incorrec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t".cleaning doctor name  fields </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">doctor name fields is empty </t>
   </si>
   <si>
@@ -951,13 +909,6 @@
       </rPr>
       <t xml:space="preserve"> ".cleaning doctor name  fields </t>
     </r>
-  </si>
-  <si>
-    <t>open " viewing referral "window 
-Type a patient ID:205495161
-Type a doctor name  :toni
-Type a date: 30-2-2010
-press "go to "</t>
   </si>
   <si>
     <t>date not exist</t>
@@ -1051,13 +1002,6 @@
     <t>cancelsviewing</t>
   </si>
   <si>
-    <t>open " viewing referral "window 
-Type a patient ID:205495161
-Type a doctor name  : toni
-Type a date: 25-10-2010
-press "cancel "</t>
-  </si>
-  <si>
     <t>doctor has logged in and was identified</t>
   </si>
   <si>
@@ -1471,9 +1415,6 @@
 </t>
   </si>
   <si>
-    <t>* Notes: the acceptance test include the extension use case "searching"</t>
-  </si>
-  <si>
     <t>IncorrectID3</t>
   </si>
   <si>
@@ -1837,6 +1778,144 @@
     <t>urgency number can not be negative .</t>
   </si>
   <si>
+    <t>referral not exist in DB .or patient hasn't a referral from doctor moche in date 25-12-2010</t>
+  </si>
+  <si>
+    <t>is there referral in system  ?</t>
+  </si>
+  <si>
+    <t>ReferralNOTExist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+System throws out the warning message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">referral not exist  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".cleaning all fields and return to main window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>system throws out warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the viewing  referral canceled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".cleaning all fields and return to main window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open " viewing referral "window 
+Type a patient ID:205495161
+Type a doctor name  :toni
+Type a date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30-2-2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+press "go to "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open " viewing referral "window 
+Type a patient ID:205495161
+Type a doctor name  : toni
+Type a date: 25-10-2010
+press "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>system throws out the warning message "</t>
     </r>
@@ -1848,17 +1927,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>patient not exist in DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"cleanng patient ID fields </t>
+      <t>doctor name Incorrect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".cleaning doctor name  fields </t>
     </r>
     <r>
       <rPr>
@@ -1873,84 +1952,98 @@
     </r>
   </si>
   <si>
-    <t>referral not exist in DB .or patient hasn't a referral from doctor moche in date 25-12-2010</t>
-  </si>
-  <si>
-    <t>is there referral in system  ?</t>
-  </si>
-  <si>
-    <t>ReferralNOTExist</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <t>system throws out warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the lab referral canceled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".cleaning all fields and return to main window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>system throws out the warning message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">patient ID Incorrect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"cleaning patient ID field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-System throws out the warning message"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">referral not exist  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".cleaning all fields and return to main window</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>system throws out warning message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the viewing  referral canceled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ".cleaning all fields and return to main window</t>
-    </r>
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open " laboratory referral"window 
+Type a patient ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1253</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Type a code testing : 13,15
+Type a urgency: 1
+press "save "</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* Notes:1. the acceptance test include the extension use case "searching".
+                 2.Optionally ,doctor may select diagnosis history by specialization and/or doctor name </t>
   </si>
 </sst>
 </file>
@@ -2448,6 +2541,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2457,9 +2571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2469,9 +2580,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
@@ -2480,21 +2588,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2826,10 +2919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet______1"/>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2873,38 +2966,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="12"/>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2922,47 +3015,47 @@
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2985,10 +3078,10 @@
     </row>
     <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3043,20 +3136,20 @@
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -3074,7 +3167,7 @@
     </row>
     <row r="32" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>22</v>
@@ -3088,13 +3181,13 @@
     </row>
     <row r="33" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>26</v>
@@ -3108,78 +3201,78 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="30"/>
+      <c r="A42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3306,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C48" s="8"/>
     </row>
@@ -3235,20 +3328,20 @@
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+    <row r="51" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -3266,154 +3359,154 @@
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="16"/>
     </row>
     <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="16" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="28"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3471,19 +3564,19 @@
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -3501,360 +3594,366 @@
     </row>
     <row r="79" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="15" t="s">
+      <c r="D84" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" s="15" t="s">
+      <c r="C85" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="16" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="C86" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="15" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="30"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B91" s="28"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>31254689</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="25">
+        <v>40537</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>205495161</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="21">
+        <v>40476</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
-        <v>31254689</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="25">
-        <v>40537</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>205495161</v>
-      </c>
-      <c r="B99" s="10" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="21">
-        <v>40476</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+      <c r="B104" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="15" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="C105" s="15" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="D108" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="15" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="C109" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>89</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:C7"/>
@@ -3862,6 +3961,15 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A76:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
